--- a/data/input/DOC_20250128_EN727_DOC&TDN DATA_NES LTER_EN727.4.29.25_edited.xlsx
+++ b/data/input/DOC_20250128_EN727_DOC&TDN DATA_NES LTER_EN727.4.29.25_edited.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sosiknas1\Lab_data\LTER\DOC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBA0F11-A4B5-4477-8676-F1FC3901E87E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED0FA7D-60B6-4F2E-821F-7F6E667DCF9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="edited_createdSUMMARY" sheetId="6" r:id="rId1"/>
-    <sheet name="DOC RESULTS" sheetId="4" r:id="rId2"/>
-    <sheet name="TDN RESULTS" sheetId="5" r:id="rId3"/>
+    <sheet name="USEMEedited_createdSUMMARY_nost" sheetId="7" r:id="rId1"/>
+    <sheet name="edited_createdSUMMARY" sheetId="6" r:id="rId2"/>
+    <sheet name="DOC RESULTS" sheetId="4" r:id="rId3"/>
+    <sheet name="TDN RESULTS" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="94">
   <si>
     <t>Project:</t>
   </si>
@@ -743,34 +744,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -836,6 +809,34 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1053,10 +1054,2911 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C63EDD-75C7-4C0D-83C9-CF3C0EB29585}">
+  <dimension ref="A1:S95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" customWidth="1"/>
+    <col min="5" max="5" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.69921875" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.59765625" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="7.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="74" customFormat="1" ht="41.4">
+      <c r="A1" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="68"/>
+      <c r="O1" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="26" customFormat="1">
+      <c r="A2" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="61">
+        <v>20250124</v>
+      </c>
+      <c r="C2" s="62">
+        <v>1859</v>
+      </c>
+      <c r="D2" s="40">
+        <v>20</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="61">
+        <v>1</v>
+      </c>
+      <c r="H2" s="61">
+        <v>15</v>
+      </c>
+      <c r="I2" s="61">
+        <v>3</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61">
+        <v>1</v>
+      </c>
+      <c r="M2" s="61">
+        <v>1</v>
+      </c>
+      <c r="N2" s="68"/>
+      <c r="O2" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P2" s="61">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="63">
+        <v>88.524907015518778</v>
+      </c>
+      <c r="R2" s="57">
+        <v>6.1092896174863389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="26" customFormat="1">
+      <c r="A3" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="78">
+        <v>20250125</v>
+      </c>
+      <c r="C3" s="79">
+        <v>414</v>
+      </c>
+      <c r="D3" s="78">
+        <v>47</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="78">
+        <v>2</v>
+      </c>
+      <c r="H3" s="78">
+        <v>16</v>
+      </c>
+      <c r="I3" s="78">
+        <v>3</v>
+      </c>
+      <c r="J3" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78">
+        <v>1</v>
+      </c>
+      <c r="M3" s="78">
+        <v>1</v>
+      </c>
+      <c r="N3" s="68"/>
+      <c r="O3" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P3" s="78">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="81">
+        <v>83.813992561241506</v>
+      </c>
+      <c r="R3" s="82">
+        <v>5.0251366120218579</v>
+      </c>
+      <c r="S3" s="83"/>
+    </row>
+    <row r="4" spans="1:19" s="26" customFormat="1">
+      <c r="A4" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="61">
+        <v>20250125</v>
+      </c>
+      <c r="C4" s="62">
+        <v>1011</v>
+      </c>
+      <c r="D4" s="61">
+        <v>67</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="61">
+        <v>5</v>
+      </c>
+      <c r="H4" s="61">
+        <v>10</v>
+      </c>
+      <c r="I4" s="61">
+        <v>25</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61">
+        <v>1</v>
+      </c>
+      <c r="M4" s="61">
+        <v>1</v>
+      </c>
+      <c r="N4" s="68"/>
+      <c r="O4" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P4" s="61">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="63">
+        <v>77.834641528793128</v>
+      </c>
+      <c r="R4" s="57">
+        <v>6.9748633879781412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="26" customFormat="1">
+      <c r="A5" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="61">
+        <v>20250125</v>
+      </c>
+      <c r="C5" s="62">
+        <v>1011</v>
+      </c>
+      <c r="D5" s="61">
+        <v>67</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="61">
+        <v>5</v>
+      </c>
+      <c r="H5" s="61">
+        <v>18</v>
+      </c>
+      <c r="I5" s="61">
+        <v>3.5</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61">
+        <v>1</v>
+      </c>
+      <c r="M5" s="61">
+        <v>1</v>
+      </c>
+      <c r="N5" s="68"/>
+      <c r="O5" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P5" s="61">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="63">
+        <v>74.639951263306401</v>
+      </c>
+      <c r="R5" s="57">
+        <v>6.2153005464480868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="26" customFormat="1">
+      <c r="A6" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="61">
+        <v>20250125</v>
+      </c>
+      <c r="C6" s="62">
+        <v>1011</v>
+      </c>
+      <c r="D6" s="61">
+        <v>67</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="61">
+        <v>5</v>
+      </c>
+      <c r="H6" s="61">
+        <v>18</v>
+      </c>
+      <c r="I6" s="61">
+        <v>3.5</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="61">
+        <v>1</v>
+      </c>
+      <c r="M6" s="61">
+        <v>1</v>
+      </c>
+      <c r="N6" s="68"/>
+      <c r="O6" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P6" s="61">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="63">
+        <v>75.740246248557128</v>
+      </c>
+      <c r="R6" s="57">
+        <v>7.0349726775956283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="26" customFormat="1">
+      <c r="A7" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="78">
+        <v>20250126</v>
+      </c>
+      <c r="C7" s="79">
+        <v>350</v>
+      </c>
+      <c r="D7" s="78">
+        <v>1526</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="78">
+        <v>6</v>
+      </c>
+      <c r="H7" s="78">
+        <v>1</v>
+      </c>
+      <c r="I7" s="78">
+        <v>500</v>
+      </c>
+      <c r="J7" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78">
+        <v>1</v>
+      </c>
+      <c r="M7" s="78">
+        <v>1</v>
+      </c>
+      <c r="N7" s="68"/>
+      <c r="O7" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P7" s="78">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="81">
+        <v>47.551455688085156</v>
+      </c>
+      <c r="R7" s="82">
+        <v>19.312568306010931</v>
+      </c>
+      <c r="S7" s="83"/>
+    </row>
+    <row r="8" spans="1:19" s="26" customFormat="1">
+      <c r="A8" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="78">
+        <v>20250126</v>
+      </c>
+      <c r="C8" s="79">
+        <v>350</v>
+      </c>
+      <c r="D8" s="78">
+        <v>1526</v>
+      </c>
+      <c r="E8" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="78">
+        <v>6</v>
+      </c>
+      <c r="H8" s="78">
+        <v>1</v>
+      </c>
+      <c r="I8" s="78">
+        <v>500</v>
+      </c>
+      <c r="J8" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="78">
+        <v>1</v>
+      </c>
+      <c r="M8" s="78">
+        <v>1</v>
+      </c>
+      <c r="N8" s="68"/>
+      <c r="O8" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P8" s="78">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="81">
+        <v>46.760895216108757</v>
+      </c>
+      <c r="R8" s="82">
+        <v>20.695081967213117</v>
+      </c>
+      <c r="S8" s="83"/>
+    </row>
+    <row r="9" spans="1:19" s="26" customFormat="1">
+      <c r="A9" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="84">
+        <v>20250126</v>
+      </c>
+      <c r="C9" s="79">
+        <v>350</v>
+      </c>
+      <c r="D9" s="78">
+        <v>1526</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="78">
+        <v>6</v>
+      </c>
+      <c r="H9" s="78">
+        <v>4</v>
+      </c>
+      <c r="I9" s="78">
+        <v>75</v>
+      </c>
+      <c r="J9" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78">
+        <v>1</v>
+      </c>
+      <c r="M9" s="78">
+        <v>1</v>
+      </c>
+      <c r="N9" s="68"/>
+      <c r="O9" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P9" s="78">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="81">
+        <v>58.710747723483379</v>
+      </c>
+      <c r="R9" s="82">
+        <v>10.998907103825136</v>
+      </c>
+      <c r="S9" s="83"/>
+    </row>
+    <row r="10" spans="1:19" s="26" customFormat="1">
+      <c r="A10" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="78">
+        <v>20250126</v>
+      </c>
+      <c r="C10" s="79">
+        <v>350</v>
+      </c>
+      <c r="D10" s="78">
+        <v>1526</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="78">
+        <v>6</v>
+      </c>
+      <c r="H10" s="78">
+        <v>15</v>
+      </c>
+      <c r="I10" s="78">
+        <v>20</v>
+      </c>
+      <c r="J10" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78">
+        <v>1</v>
+      </c>
+      <c r="M10" s="78">
+        <v>1</v>
+      </c>
+      <c r="N10" s="68"/>
+      <c r="O10" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P10" s="78">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="81">
+        <v>69.982134154161841</v>
+      </c>
+      <c r="R10" s="82">
+        <v>7.1005464480874316</v>
+      </c>
+      <c r="S10" s="83"/>
+    </row>
+    <row r="11" spans="1:19" s="26" customFormat="1">
+      <c r="A11" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="78">
+        <v>20250126</v>
+      </c>
+      <c r="C11" s="79">
+        <v>350</v>
+      </c>
+      <c r="D11" s="78">
+        <v>1526</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="78">
+        <v>6</v>
+      </c>
+      <c r="H11" s="78">
+        <v>19</v>
+      </c>
+      <c r="I11" s="78">
+        <v>3</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78">
+        <v>1</v>
+      </c>
+      <c r="M11" s="78">
+        <v>1</v>
+      </c>
+      <c r="N11" s="68"/>
+      <c r="O11" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P11" s="78">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="81">
+        <v>69.277119404899324</v>
+      </c>
+      <c r="R11" s="82">
+        <v>6.9081967213114748</v>
+      </c>
+      <c r="S11" s="83"/>
+    </row>
+    <row r="12" spans="1:19" s="26" customFormat="1">
+      <c r="A12" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="61">
+        <v>20250126</v>
+      </c>
+      <c r="C12" s="62">
+        <v>1112</v>
+      </c>
+      <c r="D12" s="61">
+        <v>452</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="61">
+        <v>9</v>
+      </c>
+      <c r="H12" s="61">
+        <v>1</v>
+      </c>
+      <c r="I12" s="61">
+        <v>442</v>
+      </c>
+      <c r="J12" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61">
+        <v>1</v>
+      </c>
+      <c r="M12" s="61">
+        <v>1</v>
+      </c>
+      <c r="N12" s="68"/>
+      <c r="O12" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P12" s="61">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="63">
+        <v>46.760895216108757</v>
+      </c>
+      <c r="R12" s="57">
+        <v>20.95081967213115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="26" customFormat="1">
+      <c r="A13" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="61">
+        <v>20250126</v>
+      </c>
+      <c r="C13" s="62">
+        <v>1112</v>
+      </c>
+      <c r="D13" s="61">
+        <v>452</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="61">
+        <v>9</v>
+      </c>
+      <c r="H13" s="61">
+        <v>6</v>
+      </c>
+      <c r="I13" s="61">
+        <v>100</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61">
+        <v>1</v>
+      </c>
+      <c r="M13" s="61">
+        <v>1</v>
+      </c>
+      <c r="N13" s="68"/>
+      <c r="O13" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P13" s="61">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="63">
+        <v>53.80514300371938</v>
+      </c>
+      <c r="R13" s="57">
+        <v>14.00109289617486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="26" customFormat="1">
+      <c r="A14" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="61">
+        <v>20250126</v>
+      </c>
+      <c r="C14" s="62">
+        <v>1112</v>
+      </c>
+      <c r="D14" s="61">
+        <v>452</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="61">
+        <v>9</v>
+      </c>
+      <c r="H14" s="61">
+        <v>16</v>
+      </c>
+      <c r="I14" s="61">
+        <v>25</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61">
+        <v>1</v>
+      </c>
+      <c r="M14" s="61">
+        <v>1</v>
+      </c>
+      <c r="N14" s="68"/>
+      <c r="O14" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P14" s="61">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="63">
+        <v>69.642901115813771</v>
+      </c>
+      <c r="R14" s="57">
+        <v>7.2021857923497272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="26" customFormat="1">
+      <c r="A15" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="61">
+        <v>20250126</v>
+      </c>
+      <c r="C15" s="62">
+        <v>1112</v>
+      </c>
+      <c r="D15" s="61">
+        <v>452</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="61">
+        <v>9</v>
+      </c>
+      <c r="H15" s="61">
+        <v>21</v>
+      </c>
+      <c r="I15" s="61">
+        <v>5</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61">
+        <v>1</v>
+      </c>
+      <c r="M15" s="61">
+        <v>1</v>
+      </c>
+      <c r="N15" s="68"/>
+      <c r="O15" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P15" s="61">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="63">
+        <v>69.926086956521729</v>
+      </c>
+      <c r="R15" s="57">
+        <v>6.527868852459016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="26" customFormat="1">
+      <c r="A16" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="78">
+        <v>20250126</v>
+      </c>
+      <c r="C16" s="79">
+        <v>1837</v>
+      </c>
+      <c r="D16" s="78">
+        <v>139</v>
+      </c>
+      <c r="E16" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="78">
+        <v>10</v>
+      </c>
+      <c r="H16" s="78">
+        <v>2</v>
+      </c>
+      <c r="I16" s="78">
+        <v>133</v>
+      </c>
+      <c r="J16" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78">
+        <v>1</v>
+      </c>
+      <c r="M16" s="78">
+        <v>1</v>
+      </c>
+      <c r="N16" s="68"/>
+      <c r="O16" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P16" s="78">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="81">
+        <v>56.032281646787226</v>
+      </c>
+      <c r="R16" s="82">
+        <v>15.840437158469946</v>
+      </c>
+      <c r="S16" s="83"/>
+    </row>
+    <row r="17" spans="1:19" s="26" customFormat="1">
+      <c r="A17" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="78">
+        <v>20250126</v>
+      </c>
+      <c r="C17" s="79">
+        <v>1837</v>
+      </c>
+      <c r="D17" s="78">
+        <v>139</v>
+      </c>
+      <c r="E17" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="78">
+        <v>10</v>
+      </c>
+      <c r="H17" s="78">
+        <v>3</v>
+      </c>
+      <c r="I17" s="78">
+        <v>102</v>
+      </c>
+      <c r="J17" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78">
+        <v>1</v>
+      </c>
+      <c r="M17" s="78">
+        <v>1</v>
+      </c>
+      <c r="N17" s="68"/>
+      <c r="O17" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P17" s="78">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="81">
+        <v>64.19452353469282</v>
+      </c>
+      <c r="R17" s="82">
+        <v>9.6863387978142068</v>
+      </c>
+      <c r="S17" s="83"/>
+    </row>
+    <row r="18" spans="1:19" s="26" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A18" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="78">
+        <v>20250126</v>
+      </c>
+      <c r="C18" s="79">
+        <v>1837</v>
+      </c>
+      <c r="D18" s="78">
+        <v>139</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="78">
+        <v>10</v>
+      </c>
+      <c r="H18" s="78">
+        <v>11</v>
+      </c>
+      <c r="I18" s="78">
+        <v>33</v>
+      </c>
+      <c r="J18" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78">
+        <v>1</v>
+      </c>
+      <c r="M18" s="78">
+        <v>1</v>
+      </c>
+      <c r="N18" s="68"/>
+      <c r="O18" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P18" s="78">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="81">
+        <v>69.967384891624974</v>
+      </c>
+      <c r="R18" s="82">
+        <v>9.5180327868852466</v>
+      </c>
+      <c r="S18" s="83"/>
+    </row>
+    <row r="19" spans="1:19" s="26" customFormat="1">
+      <c r="A19" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="78">
+        <v>20250126</v>
+      </c>
+      <c r="C19" s="79">
+        <v>1837</v>
+      </c>
+      <c r="D19" s="78">
+        <v>139</v>
+      </c>
+      <c r="E19" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="78">
+        <v>10</v>
+      </c>
+      <c r="H19" s="78">
+        <v>19</v>
+      </c>
+      <c r="I19" s="78">
+        <v>7</v>
+      </c>
+      <c r="J19" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78">
+        <v>1</v>
+      </c>
+      <c r="M19" s="78">
+        <v>1</v>
+      </c>
+      <c r="N19" s="68"/>
+      <c r="O19" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P19" s="78">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="81">
+        <v>69.746145953571883</v>
+      </c>
+      <c r="R19" s="82">
+        <v>8.9081967213114766</v>
+      </c>
+      <c r="S19" s="83"/>
+    </row>
+    <row r="20" spans="1:19" s="26" customFormat="1">
+      <c r="A20" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="61">
+        <v>20250126</v>
+      </c>
+      <c r="C20" s="62">
+        <v>2107</v>
+      </c>
+      <c r="D20" s="61">
+        <v>212</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="61">
+        <v>11</v>
+      </c>
+      <c r="H20" s="61">
+        <v>2</v>
+      </c>
+      <c r="I20" s="61">
+        <v>206</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61">
+        <v>1</v>
+      </c>
+      <c r="M20" s="61">
+        <v>1</v>
+      </c>
+      <c r="N20" s="68"/>
+      <c r="O20" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P20" s="61">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="63">
+        <v>47.993933564191352</v>
+      </c>
+      <c r="R20" s="57">
+        <v>21.166120218579234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="26" customFormat="1">
+      <c r="A21" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="61">
+        <v>20250126</v>
+      </c>
+      <c r="C21" s="62">
+        <v>2107</v>
+      </c>
+      <c r="D21" s="61">
+        <v>212</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="61">
+        <v>11</v>
+      </c>
+      <c r="H21" s="61">
+        <v>6</v>
+      </c>
+      <c r="I21" s="61">
+        <v>100</v>
+      </c>
+      <c r="J21" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61">
+        <v>1</v>
+      </c>
+      <c r="M21" s="61">
+        <v>1</v>
+      </c>
+      <c r="N21" s="68"/>
+      <c r="O21" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P21" s="61">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="63">
+        <v>59.645850968321149</v>
+      </c>
+      <c r="R21" s="57">
+        <v>11.337704918032788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="7">
+        <v>20250126</v>
+      </c>
+      <c r="C22" s="36">
+        <v>2107</v>
+      </c>
+      <c r="D22" s="13">
+        <v>212</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="13">
+        <v>11</v>
+      </c>
+      <c r="H22" s="13">
+        <v>14</v>
+      </c>
+      <c r="I22" s="13">
+        <v>40</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="61">
+        <v>1</v>
+      </c>
+      <c r="M22" s="61">
+        <v>1</v>
+      </c>
+      <c r="N22" s="68"/>
+      <c r="O22" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P22" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="48">
+        <v>68.979184301654485</v>
+      </c>
+      <c r="R22" s="57">
+        <v>8.279781420765028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="7">
+        <v>20250126</v>
+      </c>
+      <c r="C23" s="36">
+        <v>2107</v>
+      </c>
+      <c r="D23" s="13">
+        <v>212</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="13">
+        <v>11</v>
+      </c>
+      <c r="H23" s="13">
+        <v>14</v>
+      </c>
+      <c r="I23" s="13">
+        <v>40</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="76">
+        <v>3</v>
+      </c>
+      <c r="M23" s="61">
+        <v>1</v>
+      </c>
+      <c r="N23" s="68"/>
+      <c r="O23" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P23" s="13">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="77">
+        <v>72.49540849044503</v>
+      </c>
+      <c r="R23" s="57">
+        <v>8.6524590163934434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="7">
+        <v>20250126</v>
+      </c>
+      <c r="C24" s="36">
+        <v>2107</v>
+      </c>
+      <c r="D24" s="13">
+        <v>212</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="13">
+        <v>11</v>
+      </c>
+      <c r="H24" s="13">
+        <v>21</v>
+      </c>
+      <c r="I24" s="13">
+        <v>6</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="61">
+        <v>1</v>
+      </c>
+      <c r="M24" s="61">
+        <v>1</v>
+      </c>
+      <c r="N24" s="68"/>
+      <c r="O24" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P24" s="13">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="48">
+        <v>72.896588431447981</v>
+      </c>
+      <c r="R24" s="57">
+        <v>8.9125683060109306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="85">
+        <v>20250127</v>
+      </c>
+      <c r="C25" s="86">
+        <v>352</v>
+      </c>
+      <c r="D25" s="87">
+        <v>123</v>
+      </c>
+      <c r="E25" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="87">
+        <v>14</v>
+      </c>
+      <c r="H25" s="87">
+        <v>5</v>
+      </c>
+      <c r="I25" s="87">
+        <v>100</v>
+      </c>
+      <c r="J25" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="87"/>
+      <c r="L25" s="78">
+        <v>1</v>
+      </c>
+      <c r="M25" s="78">
+        <v>1</v>
+      </c>
+      <c r="N25" s="68"/>
+      <c r="O25" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P25" s="87">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="88">
+        <v>73.153225599589589</v>
+      </c>
+      <c r="R25" s="82">
+        <v>9.2961748633879786</v>
+      </c>
+      <c r="S25" s="89"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="85">
+        <v>20250127</v>
+      </c>
+      <c r="C26" s="86">
+        <v>352</v>
+      </c>
+      <c r="D26" s="87">
+        <v>123</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="87">
+        <v>14</v>
+      </c>
+      <c r="H26" s="87">
+        <v>15</v>
+      </c>
+      <c r="I26" s="87">
+        <v>30</v>
+      </c>
+      <c r="J26" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="87"/>
+      <c r="L26" s="78">
+        <v>1</v>
+      </c>
+      <c r="M26" s="78">
+        <v>1</v>
+      </c>
+      <c r="N26" s="68"/>
+      <c r="O26" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P26" s="87">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="88">
+        <v>73.790393741182498</v>
+      </c>
+      <c r="R26" s="82">
+        <v>8.7562841530054651</v>
+      </c>
+      <c r="S26" s="89"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="85">
+        <v>20250127</v>
+      </c>
+      <c r="C27" s="86">
+        <v>352</v>
+      </c>
+      <c r="D27" s="87">
+        <v>123</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="87">
+        <v>14</v>
+      </c>
+      <c r="H27" s="87">
+        <v>19</v>
+      </c>
+      <c r="I27" s="87">
+        <v>4</v>
+      </c>
+      <c r="J27" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="87"/>
+      <c r="L27" s="78">
+        <v>1</v>
+      </c>
+      <c r="M27" s="78">
+        <v>1</v>
+      </c>
+      <c r="N27" s="68"/>
+      <c r="O27" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P27" s="87">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="88">
+        <v>72.513107605489296</v>
+      </c>
+      <c r="R27" s="82">
+        <v>9.2448087431693988</v>
+      </c>
+      <c r="S27" s="89"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="7">
+        <v>20250127</v>
+      </c>
+      <c r="C28" s="36">
+        <v>1021</v>
+      </c>
+      <c r="D28" s="13">
+        <v>95</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="13">
+        <v>18</v>
+      </c>
+      <c r="H28" s="13">
+        <v>2</v>
+      </c>
+      <c r="I28" s="13">
+        <v>89</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="61">
+        <v>1</v>
+      </c>
+      <c r="M28" s="61">
+        <v>1</v>
+      </c>
+      <c r="N28" s="68"/>
+      <c r="O28" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P28" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="48">
+        <v>76.188623829678079</v>
+      </c>
+      <c r="R28" s="57">
+        <v>8.174863387978144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="7">
+        <v>20250127</v>
+      </c>
+      <c r="C29" s="36">
+        <v>1021</v>
+      </c>
+      <c r="D29" s="13">
+        <v>95</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="13">
+        <v>18</v>
+      </c>
+      <c r="H29" s="13">
+        <v>9</v>
+      </c>
+      <c r="I29" s="13">
+        <v>34</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="61">
+        <v>1</v>
+      </c>
+      <c r="M29" s="61">
+        <v>1</v>
+      </c>
+      <c r="N29" s="68"/>
+      <c r="O29" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P29" s="13">
+        <v>28</v>
+      </c>
+      <c r="Q29" s="48">
+        <v>73.271219699884568</v>
+      </c>
+      <c r="R29" s="57">
+        <v>8.804371584699453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="7">
+        <v>20250127</v>
+      </c>
+      <c r="C30" s="36">
+        <v>1021</v>
+      </c>
+      <c r="D30" s="13">
+        <v>95</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="13">
+        <v>18</v>
+      </c>
+      <c r="H30" s="13">
+        <v>21</v>
+      </c>
+      <c r="I30" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="61">
+        <v>1</v>
+      </c>
+      <c r="M30" s="61">
+        <v>1</v>
+      </c>
+      <c r="N30" s="68"/>
+      <c r="O30" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P30" s="13">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="48">
+        <v>74.047030909324079</v>
+      </c>
+      <c r="R30" s="57">
+        <v>8.6469945355191271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="85">
+        <v>20250127</v>
+      </c>
+      <c r="C31" s="86">
+        <v>1959</v>
+      </c>
+      <c r="D31" s="87">
+        <v>77</v>
+      </c>
+      <c r="E31" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="87">
+        <v>19</v>
+      </c>
+      <c r="H31" s="87">
+        <v>13</v>
+      </c>
+      <c r="I31" s="87">
+        <v>30</v>
+      </c>
+      <c r="J31" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="87"/>
+      <c r="L31" s="78">
+        <v>1</v>
+      </c>
+      <c r="M31" s="78">
+        <v>1</v>
+      </c>
+      <c r="N31" s="68"/>
+      <c r="O31" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P31" s="87">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="88">
+        <v>73.746145953571883</v>
+      </c>
+      <c r="R31" s="82">
+        <v>7.0360655737704931</v>
+      </c>
+      <c r="S31" s="89"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="85">
+        <v>20250127</v>
+      </c>
+      <c r="C32" s="86">
+        <v>1959</v>
+      </c>
+      <c r="D32" s="87">
+        <v>77</v>
+      </c>
+      <c r="E32" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="87">
+        <v>19</v>
+      </c>
+      <c r="H32" s="87">
+        <v>13</v>
+      </c>
+      <c r="I32" s="87">
+        <v>30</v>
+      </c>
+      <c r="J32" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32" s="78">
+        <v>1</v>
+      </c>
+      <c r="M32" s="78">
+        <v>1</v>
+      </c>
+      <c r="N32" s="68"/>
+      <c r="O32" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P32" s="87">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="88">
+        <v>74.790393741182498</v>
+      </c>
+      <c r="R32" s="82">
+        <v>7.8765027322404375</v>
+      </c>
+      <c r="S32" s="89"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="85">
+        <v>20250127</v>
+      </c>
+      <c r="C33" s="86">
+        <v>1959</v>
+      </c>
+      <c r="D33" s="87">
+        <v>77</v>
+      </c>
+      <c r="E33" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="87">
+        <v>19</v>
+      </c>
+      <c r="H33" s="87">
+        <v>17</v>
+      </c>
+      <c r="I33" s="87">
+        <v>5</v>
+      </c>
+      <c r="J33" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="87"/>
+      <c r="L33" s="78">
+        <v>1</v>
+      </c>
+      <c r="M33" s="78">
+        <v>1</v>
+      </c>
+      <c r="N33" s="68"/>
+      <c r="O33" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P33" s="87">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="88">
+        <v>74.625202000769519</v>
+      </c>
+      <c r="R33" s="82">
+        <v>7.1879781420765037</v>
+      </c>
+      <c r="S33" s="89"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="7">
+        <v>20250128</v>
+      </c>
+      <c r="C34" s="36">
+        <v>230</v>
+      </c>
+      <c r="D34" s="13">
+        <v>54</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="13">
+        <v>20</v>
+      </c>
+      <c r="H34" s="13">
+        <v>5</v>
+      </c>
+      <c r="I34" s="13">
+        <v>30</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="13"/>
+      <c r="L34" s="61">
+        <v>1</v>
+      </c>
+      <c r="M34" s="61">
+        <v>1</v>
+      </c>
+      <c r="N34" s="68"/>
+      <c r="O34" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P34" s="13">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="48">
+        <v>80.769744773630876</v>
+      </c>
+      <c r="R34" s="57">
+        <v>4.7628415300546445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="42" customFormat="1">
+      <c r="A35" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="43">
+        <v>20250128</v>
+      </c>
+      <c r="C35" s="44">
+        <v>230</v>
+      </c>
+      <c r="D35" s="43">
+        <v>54</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="43">
+        <v>20</v>
+      </c>
+      <c r="H35" s="43">
+        <v>12</v>
+      </c>
+      <c r="I35" s="43">
+        <v>4</v>
+      </c>
+      <c r="J35" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" s="43"/>
+      <c r="L35" s="61">
+        <v>1</v>
+      </c>
+      <c r="M35" s="61">
+        <v>1</v>
+      </c>
+      <c r="N35" s="68"/>
+      <c r="O35" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P35" s="13">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="49">
+        <v>82.701898165961268</v>
+      </c>
+      <c r="R35" s="57">
+        <v>5.1912568306010929</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="87">
+        <v>20250128</v>
+      </c>
+      <c r="C36" s="90">
+        <v>950</v>
+      </c>
+      <c r="D36" s="87">
+        <v>22</v>
+      </c>
+      <c r="E36" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="87">
+        <v>21</v>
+      </c>
+      <c r="H36" s="87">
+        <v>5</v>
+      </c>
+      <c r="I36" s="87">
+        <v>5.6</v>
+      </c>
+      <c r="J36" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="87"/>
+      <c r="L36" s="78">
+        <v>1</v>
+      </c>
+      <c r="M36" s="78">
+        <v>1</v>
+      </c>
+      <c r="N36" s="68"/>
+      <c r="O36" s="80">
+        <v>45776</v>
+      </c>
+      <c r="P36" s="87">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="88">
+        <v>87.551455688085156</v>
+      </c>
+      <c r="R36" s="82">
+        <v>5.8415300546448101</v>
+      </c>
+      <c r="S36" s="89"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="13">
+        <v>20250129</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37" s="61">
+        <v>1</v>
+      </c>
+      <c r="M37" s="61">
+        <v>1</v>
+      </c>
+      <c r="N37" s="68"/>
+      <c r="O37" s="75">
+        <v>45776</v>
+      </c>
+      <c r="P37" s="13">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="48">
+        <v>1.2670899063742462</v>
+      </c>
+      <c r="R37" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76DF976-3646-43AC-9A73-D1010E731A53}">
   <dimension ref="A1:W95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -1075,66 +3977,66 @@
     <col min="14" max="14" width="7.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="84" customFormat="1" ht="41.4">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:23" s="74" customFormat="1" ht="41.4">
+      <c r="A1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="77" t="s">
+      <c r="M1" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79" t="s">
+      <c r="N1" s="68"/>
+      <c r="O1" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="80" t="s">
+      <c r="P1" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="81" t="s">
+      <c r="Q1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="82" t="s">
+      <c r="S1" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="T1" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="83" t="s">
+      <c r="U1" s="73" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1176,8 +4078,8 @@
       <c r="M2" s="61">
         <v>1</v>
       </c>
-      <c r="N2" s="78"/>
-      <c r="O2" s="85">
+      <c r="N2" s="68"/>
+      <c r="O2" s="75">
         <v>45776</v>
       </c>
       <c r="P2" s="61">
@@ -1201,65 +4103,65 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="26" customFormat="1">
-      <c r="A3" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="88">
+      <c r="A3" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="78">
         <v>20250125</v>
       </c>
-      <c r="C3" s="89">
+      <c r="C3" s="79">
         <v>414</v>
       </c>
-      <c r="D3" s="88">
+      <c r="D3" s="78">
         <v>47</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="88">
+      <c r="G3" s="78">
         <v>2</v>
       </c>
-      <c r="H3" s="88">
+      <c r="H3" s="78">
         <v>16</v>
       </c>
-      <c r="I3" s="88">
+      <c r="I3" s="78">
         <v>3</v>
       </c>
-      <c r="J3" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88">
-        <v>1</v>
-      </c>
-      <c r="M3" s="88">
-        <v>1</v>
-      </c>
-      <c r="N3" s="78"/>
-      <c r="O3" s="90">
+      <c r="J3" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78">
+        <v>1</v>
+      </c>
+      <c r="M3" s="78">
+        <v>1</v>
+      </c>
+      <c r="N3" s="68"/>
+      <c r="O3" s="80">
         <v>45776</v>
       </c>
-      <c r="P3" s="88">
+      <c r="P3" s="78">
         <v>2</v>
       </c>
-      <c r="Q3" s="91">
+      <c r="Q3" s="81">
         <v>83.813992561241506</v>
       </c>
-      <c r="R3" s="92">
+      <c r="R3" s="82">
         <v>5.0251366120218579</v>
       </c>
-      <c r="S3" s="93"/>
-      <c r="T3" s="91">
+      <c r="S3" s="83"/>
+      <c r="T3" s="81">
         <v>0.97843988606637067</v>
       </c>
-      <c r="U3" s="92">
+      <c r="U3" s="82">
         <v>0.20499889115092224</v>
       </c>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93">
+      <c r="V3" s="83"/>
+      <c r="W3" s="83">
         <f t="shared" ref="W3:W37" si="0">Q3/R3</f>
         <v>16.678948062969983</v>
       </c>
@@ -1302,8 +4204,8 @@
       <c r="M4" s="61">
         <v>1</v>
       </c>
-      <c r="N4" s="78"/>
-      <c r="O4" s="85">
+      <c r="N4" s="68"/>
+      <c r="O4" s="75">
         <v>45776</v>
       </c>
       <c r="P4" s="61">
@@ -1364,8 +4266,8 @@
       <c r="M5" s="61">
         <v>1</v>
       </c>
-      <c r="N5" s="78"/>
-      <c r="O5" s="85">
+      <c r="N5" s="68"/>
+      <c r="O5" s="75">
         <v>45776</v>
       </c>
       <c r="P5" s="61">
@@ -1428,8 +4330,8 @@
       <c r="M6" s="61">
         <v>1</v>
       </c>
-      <c r="N6" s="78"/>
-      <c r="O6" s="85">
+      <c r="N6" s="68"/>
+      <c r="O6" s="75">
         <v>45776</v>
       </c>
       <c r="P6" s="61">
@@ -1453,323 +4355,323 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="26" customFormat="1">
-      <c r="A7" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="88">
+      <c r="A7" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="78">
         <v>20250126</v>
       </c>
-      <c r="C7" s="89">
+      <c r="C7" s="79">
         <v>350</v>
       </c>
-      <c r="D7" s="88">
+      <c r="D7" s="78">
         <v>1526</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="88" t="s">
+      <c r="F7" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="88">
+      <c r="G7" s="78">
         <v>6</v>
       </c>
-      <c r="H7" s="88">
-        <v>1</v>
-      </c>
-      <c r="I7" s="88">
+      <c r="H7" s="78">
+        <v>1</v>
+      </c>
+      <c r="I7" s="78">
         <v>500</v>
       </c>
-      <c r="J7" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88">
-        <v>1</v>
-      </c>
-      <c r="M7" s="88">
-        <v>1</v>
-      </c>
-      <c r="N7" s="78"/>
-      <c r="O7" s="90">
+      <c r="J7" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78">
+        <v>1</v>
+      </c>
+      <c r="M7" s="78">
+        <v>1</v>
+      </c>
+      <c r="N7" s="68"/>
+      <c r="O7" s="80">
         <v>45776</v>
       </c>
-      <c r="P7" s="88">
+      <c r="P7" s="78">
         <v>6</v>
       </c>
-      <c r="Q7" s="91">
+      <c r="Q7" s="81">
         <v>47.551455688085156</v>
       </c>
-      <c r="R7" s="92">
+      <c r="R7" s="82">
         <v>19.312568306010931</v>
       </c>
-      <c r="S7" s="93"/>
-      <c r="T7" s="91">
+      <c r="S7" s="83"/>
+      <c r="T7" s="81">
         <v>0.94094284122018812</v>
       </c>
-      <c r="U7" s="92">
+      <c r="U7" s="82">
         <v>5.8681502770093319E-2</v>
       </c>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93">
+      <c r="V7" s="83"/>
+      <c r="W7" s="83">
         <f t="shared" si="0"/>
         <v>2.4622025892478021</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="26" customFormat="1">
-      <c r="A8" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="88">
+      <c r="A8" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="78">
         <v>20250126</v>
       </c>
-      <c r="C8" s="89">
+      <c r="C8" s="79">
         <v>350</v>
       </c>
-      <c r="D8" s="88">
+      <c r="D8" s="78">
         <v>1526</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="78">
         <v>6</v>
       </c>
-      <c r="H8" s="88">
-        <v>1</v>
-      </c>
-      <c r="I8" s="88">
+      <c r="H8" s="78">
+        <v>1</v>
+      </c>
+      <c r="I8" s="78">
         <v>500</v>
       </c>
-      <c r="J8" s="88" t="s">
+      <c r="J8" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="88" t="s">
+      <c r="K8" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="88">
-        <v>1</v>
-      </c>
-      <c r="M8" s="88">
-        <v>1</v>
-      </c>
-      <c r="N8" s="78"/>
-      <c r="O8" s="90">
+      <c r="L8" s="78">
+        <v>1</v>
+      </c>
+      <c r="M8" s="78">
+        <v>1</v>
+      </c>
+      <c r="N8" s="68"/>
+      <c r="O8" s="80">
         <v>45776</v>
       </c>
-      <c r="P8" s="88">
+      <c r="P8" s="78">
         <v>7</v>
       </c>
-      <c r="Q8" s="91">
+      <c r="Q8" s="81">
         <v>46.760895216108757</v>
       </c>
-      <c r="R8" s="92">
+      <c r="R8" s="82">
         <v>20.695081967213117</v>
       </c>
-      <c r="S8" s="93"/>
-      <c r="T8" s="91">
+      <c r="S8" s="83"/>
+      <c r="T8" s="81">
         <v>0.59557807027243692</v>
       </c>
-      <c r="U8" s="92">
+      <c r="U8" s="82">
         <v>0.38248399572710101</v>
       </c>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93">
+      <c r="V8" s="83"/>
+      <c r="W8" s="83">
         <f t="shared" si="0"/>
         <v>2.2595172751763575</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="26" customFormat="1">
-      <c r="A9" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="94">
+      <c r="A9" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="84">
         <v>20250126</v>
       </c>
-      <c r="C9" s="89">
+      <c r="C9" s="79">
         <v>350</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="78">
         <v>1526</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="F9" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="78">
         <v>6</v>
       </c>
-      <c r="H9" s="88">
+      <c r="H9" s="78">
         <v>4</v>
       </c>
-      <c r="I9" s="88">
+      <c r="I9" s="78">
         <v>75</v>
       </c>
-      <c r="J9" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88">
-        <v>1</v>
-      </c>
-      <c r="M9" s="88">
-        <v>1</v>
-      </c>
-      <c r="N9" s="78"/>
-      <c r="O9" s="90">
+      <c r="J9" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78">
+        <v>1</v>
+      </c>
+      <c r="M9" s="78">
+        <v>1</v>
+      </c>
+      <c r="N9" s="68"/>
+      <c r="O9" s="80">
         <v>45776</v>
       </c>
-      <c r="P9" s="88">
+      <c r="P9" s="78">
         <v>8</v>
       </c>
-      <c r="Q9" s="91">
+      <c r="Q9" s="81">
         <v>58.710747723483379</v>
       </c>
-      <c r="R9" s="92">
+      <c r="R9" s="82">
         <v>10.998907103825136</v>
       </c>
-      <c r="S9" s="93"/>
-      <c r="T9" s="91">
+      <c r="S9" s="83"/>
+      <c r="T9" s="81">
         <v>1.0618116924739334</v>
       </c>
-      <c r="U9" s="92">
+      <c r="U9" s="82">
         <v>0.25858717982704338</v>
       </c>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93">
+      <c r="V9" s="83"/>
+      <c r="W9" s="83">
         <f t="shared" si="0"/>
         <v>5.3378710420297395</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="26" customFormat="1">
-      <c r="A10" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="88">
+      <c r="A10" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="78">
         <v>20250126</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10" s="79">
         <v>350</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="78">
         <v>1526</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="F10" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="88">
+      <c r="G10" s="78">
         <v>6</v>
       </c>
-      <c r="H10" s="88">
+      <c r="H10" s="78">
         <v>15</v>
       </c>
-      <c r="I10" s="88">
+      <c r="I10" s="78">
         <v>20</v>
       </c>
-      <c r="J10" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88">
-        <v>1</v>
-      </c>
-      <c r="M10" s="88">
-        <v>1</v>
-      </c>
-      <c r="N10" s="78"/>
-      <c r="O10" s="90">
+      <c r="J10" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78">
+        <v>1</v>
+      </c>
+      <c r="M10" s="78">
+        <v>1</v>
+      </c>
+      <c r="N10" s="68"/>
+      <c r="O10" s="80">
         <v>45776</v>
       </c>
-      <c r="P10" s="88">
+      <c r="P10" s="78">
         <v>9</v>
       </c>
-      <c r="Q10" s="91">
+      <c r="Q10" s="81">
         <v>69.982134154161841</v>
       </c>
-      <c r="R10" s="92">
+      <c r="R10" s="82">
         <v>7.1005464480874316</v>
       </c>
-      <c r="S10" s="93"/>
-      <c r="T10" s="91">
+      <c r="S10" s="83"/>
+      <c r="T10" s="81">
         <v>0.75196942111054554</v>
       </c>
-      <c r="U10" s="92">
+      <c r="U10" s="82">
         <v>0.1542842733888948</v>
       </c>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93">
+      <c r="V10" s="83"/>
+      <c r="W10" s="83">
         <f t="shared" si="0"/>
         <v>9.8558800601905627</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="26" customFormat="1">
-      <c r="A11" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="88">
+      <c r="A11" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="78">
         <v>20250126</v>
       </c>
-      <c r="C11" s="89">
+      <c r="C11" s="79">
         <v>350</v>
       </c>
-      <c r="D11" s="88">
+      <c r="D11" s="78">
         <v>1526</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="78">
         <v>6</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="78">
         <v>19</v>
       </c>
-      <c r="I11" s="88">
+      <c r="I11" s="78">
         <v>3</v>
       </c>
-      <c r="J11" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88">
-        <v>1</v>
-      </c>
-      <c r="M11" s="88">
-        <v>1</v>
-      </c>
-      <c r="N11" s="78"/>
-      <c r="O11" s="90">
+      <c r="J11" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78">
+        <v>1</v>
+      </c>
+      <c r="M11" s="78">
+        <v>1</v>
+      </c>
+      <c r="N11" s="68"/>
+      <c r="O11" s="80">
         <v>45776</v>
       </c>
-      <c r="P11" s="88">
+      <c r="P11" s="78">
         <v>10</v>
       </c>
-      <c r="Q11" s="91">
+      <c r="Q11" s="81">
         <v>69.277119404899324</v>
       </c>
-      <c r="R11" s="92">
+      <c r="R11" s="82">
         <v>6.9081967213114748</v>
       </c>
-      <c r="S11" s="93"/>
-      <c r="T11" s="91">
+      <c r="S11" s="83"/>
+      <c r="T11" s="81">
         <v>0.66814647676427075</v>
       </c>
-      <c r="U11" s="92">
+      <c r="U11" s="82">
         <v>0.25880879831955284</v>
       </c>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93">
+      <c r="V11" s="83"/>
+      <c r="W11" s="83">
         <f t="shared" si="0"/>
         <v>10.028249368056144</v>
       </c>
@@ -1812,8 +4714,8 @@
       <c r="M12" s="61">
         <v>1</v>
       </c>
-      <c r="N12" s="78"/>
-      <c r="O12" s="85">
+      <c r="N12" s="68"/>
+      <c r="O12" s="75">
         <v>45776</v>
       </c>
       <c r="P12" s="61">
@@ -1874,8 +4776,8 @@
       <c r="M13" s="61">
         <v>1</v>
       </c>
-      <c r="N13" s="78"/>
-      <c r="O13" s="85">
+      <c r="N13" s="68"/>
+      <c r="O13" s="75">
         <v>45776</v>
       </c>
       <c r="P13" s="61">
@@ -1936,8 +4838,8 @@
       <c r="M14" s="61">
         <v>1</v>
       </c>
-      <c r="N14" s="78"/>
-      <c r="O14" s="85">
+      <c r="N14" s="68"/>
+      <c r="O14" s="75">
         <v>45776</v>
       </c>
       <c r="P14" s="61">
@@ -1998,8 +4900,8 @@
       <c r="M15" s="61">
         <v>1</v>
       </c>
-      <c r="N15" s="78"/>
-      <c r="O15" s="85">
+      <c r="N15" s="68"/>
+      <c r="O15" s="75">
         <v>45776</v>
       </c>
       <c r="P15" s="61">
@@ -2023,257 +4925,257 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="26" customFormat="1">
-      <c r="A16" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="88">
+      <c r="A16" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="78">
         <v>20250126</v>
       </c>
-      <c r="C16" s="89">
+      <c r="C16" s="79">
         <v>1837</v>
       </c>
-      <c r="D16" s="88">
+      <c r="D16" s="78">
         <v>139</v>
       </c>
-      <c r="E16" s="88" t="s">
+      <c r="E16" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="88" t="s">
+      <c r="F16" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="88">
+      <c r="G16" s="78">
         <v>10</v>
       </c>
-      <c r="H16" s="88">
+      <c r="H16" s="78">
         <v>2</v>
       </c>
-      <c r="I16" s="88">
+      <c r="I16" s="78">
         <v>133</v>
       </c>
-      <c r="J16" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88">
-        <v>1</v>
-      </c>
-      <c r="M16" s="88">
-        <v>1</v>
-      </c>
-      <c r="N16" s="78"/>
-      <c r="O16" s="90">
+      <c r="J16" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78">
+        <v>1</v>
+      </c>
+      <c r="M16" s="78">
+        <v>1</v>
+      </c>
+      <c r="N16" s="68"/>
+      <c r="O16" s="80">
         <v>45776</v>
       </c>
-      <c r="P16" s="88">
+      <c r="P16" s="78">
         <v>15</v>
       </c>
-      <c r="Q16" s="91">
+      <c r="Q16" s="81">
         <v>56.032281646787226</v>
       </c>
-      <c r="R16" s="92">
+      <c r="R16" s="82">
         <v>15.840437158469946</v>
       </c>
-      <c r="S16" s="93"/>
-      <c r="T16" s="91">
+      <c r="S16" s="83"/>
+      <c r="T16" s="81">
         <v>0.8890612732141534</v>
       </c>
-      <c r="U16" s="92">
+      <c r="U16" s="82">
         <v>0.32206891875195098</v>
       </c>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93">
+      <c r="V16" s="83"/>
+      <c r="W16" s="83">
         <f t="shared" si="0"/>
         <v>3.5372938944949848</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="26" customFormat="1">
-      <c r="A17" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="88">
+      <c r="A17" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="78">
         <v>20250126</v>
       </c>
-      <c r="C17" s="89">
+      <c r="C17" s="79">
         <v>1837</v>
       </c>
-      <c r="D17" s="88">
+      <c r="D17" s="78">
         <v>139</v>
       </c>
-      <c r="E17" s="88" t="s">
+      <c r="E17" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="88" t="s">
+      <c r="F17" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="88">
+      <c r="G17" s="78">
         <v>10</v>
       </c>
-      <c r="H17" s="88">
+      <c r="H17" s="78">
         <v>3</v>
       </c>
-      <c r="I17" s="88">
+      <c r="I17" s="78">
         <v>102</v>
       </c>
-      <c r="J17" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88">
-        <v>1</v>
-      </c>
-      <c r="M17" s="88">
-        <v>1</v>
-      </c>
-      <c r="N17" s="78"/>
-      <c r="O17" s="90">
+      <c r="J17" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78">
+        <v>1</v>
+      </c>
+      <c r="M17" s="78">
+        <v>1</v>
+      </c>
+      <c r="N17" s="68"/>
+      <c r="O17" s="80">
         <v>45776</v>
       </c>
-      <c r="P17" s="88">
+      <c r="P17" s="78">
         <v>16</v>
       </c>
-      <c r="Q17" s="91">
+      <c r="Q17" s="81">
         <v>64.19452353469282</v>
       </c>
-      <c r="R17" s="92">
+      <c r="R17" s="82">
         <v>9.6863387978142068</v>
       </c>
-      <c r="S17" s="93"/>
-      <c r="T17" s="91">
+      <c r="S17" s="83"/>
+      <c r="T17" s="81">
         <v>1.2664558864954532</v>
       </c>
-      <c r="U17" s="92">
+      <c r="U17" s="82">
         <v>0.10032644021983649</v>
       </c>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93">
+      <c r="V17" s="83"/>
+      <c r="W17" s="83">
         <f t="shared" si="0"/>
         <v>6.6273258528990109</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="26" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A18" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="88">
+      <c r="A18" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="78">
         <v>20250126</v>
       </c>
-      <c r="C18" s="89">
+      <c r="C18" s="79">
         <v>1837</v>
       </c>
-      <c r="D18" s="88">
+      <c r="D18" s="78">
         <v>139</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="88" t="s">
+      <c r="F18" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="88">
+      <c r="G18" s="78">
         <v>10</v>
       </c>
-      <c r="H18" s="88">
+      <c r="H18" s="78">
         <v>11</v>
       </c>
-      <c r="I18" s="88">
+      <c r="I18" s="78">
         <v>33</v>
       </c>
-      <c r="J18" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88">
-        <v>1</v>
-      </c>
-      <c r="M18" s="88">
-        <v>1</v>
-      </c>
-      <c r="N18" s="78"/>
-      <c r="O18" s="90">
+      <c r="J18" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78">
+        <v>1</v>
+      </c>
+      <c r="M18" s="78">
+        <v>1</v>
+      </c>
+      <c r="N18" s="68"/>
+      <c r="O18" s="80">
         <v>45776</v>
       </c>
-      <c r="P18" s="88">
+      <c r="P18" s="78">
         <v>17</v>
       </c>
-      <c r="Q18" s="91">
+      <c r="Q18" s="81">
         <v>69.967384891624974</v>
       </c>
-      <c r="R18" s="92">
+      <c r="R18" s="82">
         <v>9.5180327868852466</v>
       </c>
-      <c r="S18" s="93"/>
-      <c r="T18" s="91">
+      <c r="S18" s="83"/>
+      <c r="T18" s="81">
         <v>0.56403926075750843</v>
       </c>
-      <c r="U18" s="92">
+      <c r="U18" s="82">
         <v>0.30560472649786374</v>
       </c>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93">
+      <c r="V18" s="83"/>
+      <c r="W18" s="83">
         <f t="shared" si="0"/>
         <v>7.3510342376664193</v>
       </c>
     </row>
     <row r="19" spans="1:23" s="26" customFormat="1">
-      <c r="A19" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="88">
+      <c r="A19" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="78">
         <v>20250126</v>
       </c>
-      <c r="C19" s="89">
+      <c r="C19" s="79">
         <v>1837</v>
       </c>
-      <c r="D19" s="88">
+      <c r="D19" s="78">
         <v>139</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="88" t="s">
+      <c r="F19" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="88">
+      <c r="G19" s="78">
         <v>10</v>
       </c>
-      <c r="H19" s="88">
+      <c r="H19" s="78">
         <v>19</v>
       </c>
-      <c r="I19" s="88">
+      <c r="I19" s="78">
         <v>7</v>
       </c>
-      <c r="J19" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88">
-        <v>1</v>
-      </c>
-      <c r="M19" s="88">
-        <v>1</v>
-      </c>
-      <c r="N19" s="78"/>
-      <c r="O19" s="90">
+      <c r="J19" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78">
+        <v>1</v>
+      </c>
+      <c r="M19" s="78">
+        <v>1</v>
+      </c>
+      <c r="N19" s="68"/>
+      <c r="O19" s="80">
         <v>45776</v>
       </c>
-      <c r="P19" s="88">
+      <c r="P19" s="78">
         <v>18</v>
       </c>
-      <c r="Q19" s="91">
+      <c r="Q19" s="81">
         <v>69.746145953571883</v>
       </c>
-      <c r="R19" s="92">
+      <c r="R19" s="82">
         <v>8.9081967213114766</v>
       </c>
-      <c r="S19" s="93"/>
-      <c r="T19" s="91">
+      <c r="S19" s="83"/>
+      <c r="T19" s="81">
         <v>0.71464400726340593</v>
       </c>
-      <c r="U19" s="92">
+      <c r="U19" s="82">
         <v>0.13937318889726083</v>
       </c>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93">
+      <c r="V19" s="83"/>
+      <c r="W19" s="83">
         <f t="shared" si="0"/>
         <v>7.8294348604488118</v>
       </c>
@@ -2316,8 +5218,8 @@
       <c r="M20" s="61">
         <v>1</v>
       </c>
-      <c r="N20" s="78"/>
-      <c r="O20" s="85">
+      <c r="N20" s="68"/>
+      <c r="O20" s="75">
         <v>45776</v>
       </c>
       <c r="P20" s="61">
@@ -2378,8 +5280,8 @@
       <c r="M21" s="61">
         <v>1</v>
       </c>
-      <c r="N21" s="78"/>
-      <c r="O21" s="85">
+      <c r="N21" s="68"/>
+      <c r="O21" s="75">
         <v>45776</v>
       </c>
       <c r="P21" s="61">
@@ -2440,8 +5342,8 @@
       <c r="M22" s="61">
         <v>1</v>
       </c>
-      <c r="N22" s="78"/>
-      <c r="O22" s="85">
+      <c r="N22" s="68"/>
+      <c r="O22" s="75">
         <v>45776</v>
       </c>
       <c r="P22" s="13">
@@ -2498,20 +5400,20 @@
       <c r="K23" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="86">
+      <c r="L23" s="76">
         <v>3</v>
       </c>
       <c r="M23" s="61">
         <v>1</v>
       </c>
-      <c r="N23" s="78"/>
-      <c r="O23" s="85">
+      <c r="N23" s="68"/>
+      <c r="O23" s="75">
         <v>45776</v>
       </c>
       <c r="P23" s="13">
         <v>22</v>
       </c>
-      <c r="Q23" s="87">
+      <c r="Q23" s="77">
         <v>72.49540849044503</v>
       </c>
       <c r="R23" s="57">
@@ -2566,8 +5468,8 @@
       <c r="M24" s="61">
         <v>1</v>
       </c>
-      <c r="N24" s="78"/>
-      <c r="O24" s="85">
+      <c r="N24" s="68"/>
+      <c r="O24" s="75">
         <v>45776</v>
       </c>
       <c r="P24" s="13">
@@ -2591,193 +5493,193 @@
       </c>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="95">
+      <c r="A25" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="85">
         <v>20250127</v>
       </c>
-      <c r="C25" s="96">
+      <c r="C25" s="86">
         <v>352</v>
       </c>
-      <c r="D25" s="97">
+      <c r="D25" s="87">
         <v>123</v>
       </c>
-      <c r="E25" s="97" t="s">
+      <c r="E25" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="88" t="s">
+      <c r="F25" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="97">
+      <c r="G25" s="87">
         <v>14</v>
       </c>
-      <c r="H25" s="97">
+      <c r="H25" s="87">
         <v>5</v>
       </c>
-      <c r="I25" s="97">
+      <c r="I25" s="87">
         <v>100</v>
       </c>
-      <c r="J25" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="97"/>
-      <c r="L25" s="88">
-        <v>1</v>
-      </c>
-      <c r="M25" s="88">
-        <v>1</v>
-      </c>
-      <c r="N25" s="78"/>
-      <c r="O25" s="90">
+      <c r="J25" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="87"/>
+      <c r="L25" s="78">
+        <v>1</v>
+      </c>
+      <c r="M25" s="78">
+        <v>1</v>
+      </c>
+      <c r="N25" s="68"/>
+      <c r="O25" s="80">
         <v>45776</v>
       </c>
-      <c r="P25" s="97">
+      <c r="P25" s="87">
         <v>24</v>
       </c>
-      <c r="Q25" s="98">
+      <c r="Q25" s="88">
         <v>73.153225599589589</v>
       </c>
-      <c r="R25" s="92">
+      <c r="R25" s="82">
         <v>9.2961748633879786</v>
       </c>
-      <c r="S25" s="99"/>
-      <c r="T25" s="98">
+      <c r="S25" s="89"/>
+      <c r="T25" s="88">
         <v>1.418425159984386</v>
       </c>
-      <c r="U25" s="92">
+      <c r="U25" s="82">
         <v>0.15410998677221752</v>
       </c>
-      <c r="V25" s="99"/>
-      <c r="W25" s="93">
+      <c r="V25" s="89"/>
+      <c r="W25" s="83">
         <f t="shared" si="0"/>
         <v>7.8691748675787059</v>
       </c>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="95">
+      <c r="A26" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="85">
         <v>20250127</v>
       </c>
-      <c r="C26" s="96">
+      <c r="C26" s="86">
         <v>352</v>
       </c>
-      <c r="D26" s="97">
+      <c r="D26" s="87">
         <v>123</v>
       </c>
-      <c r="E26" s="97" t="s">
+      <c r="E26" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="88" t="s">
+      <c r="F26" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="97">
+      <c r="G26" s="87">
         <v>14</v>
       </c>
-      <c r="H26" s="97">
+      <c r="H26" s="87">
         <v>15</v>
       </c>
-      <c r="I26" s="97">
+      <c r="I26" s="87">
         <v>30</v>
       </c>
-      <c r="J26" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="97"/>
-      <c r="L26" s="88">
-        <v>1</v>
-      </c>
-      <c r="M26" s="88">
-        <v>1</v>
-      </c>
-      <c r="N26" s="78"/>
-      <c r="O26" s="90">
+      <c r="J26" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="87"/>
+      <c r="L26" s="78">
+        <v>1</v>
+      </c>
+      <c r="M26" s="78">
+        <v>1</v>
+      </c>
+      <c r="N26" s="68"/>
+      <c r="O26" s="80">
         <v>45776</v>
       </c>
-      <c r="P26" s="97">
+      <c r="P26" s="87">
         <v>25</v>
       </c>
-      <c r="Q26" s="98">
+      <c r="Q26" s="88">
         <v>73.790393741182498</v>
       </c>
-      <c r="R26" s="92">
+      <c r="R26" s="82">
         <v>8.7562841530054651</v>
       </c>
-      <c r="S26" s="99"/>
-      <c r="T26" s="98">
+      <c r="S26" s="89"/>
+      <c r="T26" s="88">
         <v>0.78767690550007419</v>
       </c>
-      <c r="U26" s="92">
+      <c r="U26" s="82">
         <v>0.22907062111504212</v>
       </c>
-      <c r="V26" s="99"/>
-      <c r="W26" s="93">
+      <c r="V26" s="89"/>
+      <c r="W26" s="83">
         <f t="shared" si="0"/>
         <v>8.4271355807765822</v>
       </c>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="95">
+      <c r="A27" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="85">
         <v>20250127</v>
       </c>
-      <c r="C27" s="96">
+      <c r="C27" s="86">
         <v>352</v>
       </c>
-      <c r="D27" s="97">
+      <c r="D27" s="87">
         <v>123</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="E27" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="88" t="s">
+      <c r="F27" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="97">
+      <c r="G27" s="87">
         <v>14</v>
       </c>
-      <c r="H27" s="97">
+      <c r="H27" s="87">
         <v>19</v>
       </c>
-      <c r="I27" s="97">
+      <c r="I27" s="87">
         <v>4</v>
       </c>
-      <c r="J27" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27" s="97"/>
-      <c r="L27" s="88">
-        <v>1</v>
-      </c>
-      <c r="M27" s="88">
-        <v>1</v>
-      </c>
-      <c r="N27" s="78"/>
-      <c r="O27" s="90">
+      <c r="J27" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="87"/>
+      <c r="L27" s="78">
+        <v>1</v>
+      </c>
+      <c r="M27" s="78">
+        <v>1</v>
+      </c>
+      <c r="N27" s="68"/>
+      <c r="O27" s="80">
         <v>45776</v>
       </c>
-      <c r="P27" s="97">
+      <c r="P27" s="87">
         <v>26</v>
       </c>
-      <c r="Q27" s="98">
+      <c r="Q27" s="88">
         <v>72.513107605489296</v>
       </c>
-      <c r="R27" s="92">
+      <c r="R27" s="82">
         <v>9.2448087431693988</v>
       </c>
-      <c r="S27" s="99"/>
-      <c r="T27" s="98">
+      <c r="S27" s="89"/>
+      <c r="T27" s="88">
         <v>1.1233129755955367</v>
       </c>
-      <c r="U27" s="92">
+      <c r="U27" s="82">
         <v>3.443923771931947E-2</v>
       </c>
-      <c r="V27" s="99"/>
-      <c r="W27" s="93">
+      <c r="V27" s="89"/>
+      <c r="W27" s="83">
         <f t="shared" si="0"/>
         <v>7.8436568694908031</v>
       </c>
@@ -2820,8 +5722,8 @@
       <c r="M28" s="61">
         <v>1</v>
       </c>
-      <c r="N28" s="78"/>
-      <c r="O28" s="85">
+      <c r="N28" s="68"/>
+      <c r="O28" s="75">
         <v>45776</v>
       </c>
       <c r="P28" s="13">
@@ -2882,8 +5784,8 @@
       <c r="M29" s="61">
         <v>1</v>
       </c>
-      <c r="N29" s="78"/>
-      <c r="O29" s="85">
+      <c r="N29" s="68"/>
+      <c r="O29" s="75">
         <v>45776</v>
       </c>
       <c r="P29" s="13">
@@ -2944,8 +5846,8 @@
       <c r="M30" s="61">
         <v>1</v>
       </c>
-      <c r="N30" s="78"/>
-      <c r="O30" s="85">
+      <c r="N30" s="68"/>
+      <c r="O30" s="75">
         <v>45776</v>
       </c>
       <c r="P30" s="13">
@@ -2969,195 +5871,195 @@
       </c>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="95">
+      <c r="A31" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="85">
         <v>20250127</v>
       </c>
-      <c r="C31" s="96">
+      <c r="C31" s="86">
         <v>1959</v>
       </c>
-      <c r="D31" s="97">
+      <c r="D31" s="87">
         <v>77</v>
       </c>
-      <c r="E31" s="97" t="s">
+      <c r="E31" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="88" t="s">
+      <c r="F31" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="97">
+      <c r="G31" s="87">
         <v>19</v>
       </c>
-      <c r="H31" s="97">
+      <c r="H31" s="87">
         <v>13</v>
       </c>
-      <c r="I31" s="97">
+      <c r="I31" s="87">
         <v>30</v>
       </c>
-      <c r="J31" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="97"/>
-      <c r="L31" s="88">
-        <v>1</v>
-      </c>
-      <c r="M31" s="88">
-        <v>1</v>
-      </c>
-      <c r="N31" s="78"/>
-      <c r="O31" s="90">
+      <c r="J31" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="87"/>
+      <c r="L31" s="78">
+        <v>1</v>
+      </c>
+      <c r="M31" s="78">
+        <v>1</v>
+      </c>
+      <c r="N31" s="68"/>
+      <c r="O31" s="80">
         <v>45776</v>
       </c>
-      <c r="P31" s="97">
+      <c r="P31" s="87">
         <v>30</v>
       </c>
-      <c r="Q31" s="98">
+      <c r="Q31" s="88">
         <v>73.746145953571883</v>
       </c>
-      <c r="R31" s="92">
+      <c r="R31" s="82">
         <v>7.0360655737704931</v>
       </c>
-      <c r="S31" s="99"/>
-      <c r="T31" s="98">
+      <c r="S31" s="89"/>
+      <c r="T31" s="88">
         <v>0.81882719820836214</v>
       </c>
-      <c r="U31" s="92">
+      <c r="U31" s="82">
         <v>0.2669867290037512</v>
       </c>
-      <c r="V31" s="99"/>
-      <c r="W31" s="93">
+      <c r="V31" s="89"/>
+      <c r="W31" s="83">
         <f t="shared" si="0"/>
         <v>10.481162402534679</v>
       </c>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="95">
+      <c r="A32" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="85">
         <v>20250127</v>
       </c>
-      <c r="C32" s="96">
+      <c r="C32" s="86">
         <v>1959</v>
       </c>
-      <c r="D32" s="97">
+      <c r="D32" s="87">
         <v>77</v>
       </c>
-      <c r="E32" s="97" t="s">
+      <c r="E32" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="88" t="s">
+      <c r="F32" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="97">
+      <c r="G32" s="87">
         <v>19</v>
       </c>
-      <c r="H32" s="97">
+      <c r="H32" s="87">
         <v>13</v>
       </c>
-      <c r="I32" s="97">
+      <c r="I32" s="87">
         <v>30</v>
       </c>
-      <c r="J32" s="97" t="s">
+      <c r="J32" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K32" s="97" t="s">
+      <c r="K32" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="L32" s="88">
-        <v>1</v>
-      </c>
-      <c r="M32" s="88">
-        <v>1</v>
-      </c>
-      <c r="N32" s="78"/>
-      <c r="O32" s="90">
+      <c r="L32" s="78">
+        <v>1</v>
+      </c>
+      <c r="M32" s="78">
+        <v>1</v>
+      </c>
+      <c r="N32" s="68"/>
+      <c r="O32" s="80">
         <v>45776</v>
       </c>
-      <c r="P32" s="97">
+      <c r="P32" s="87">
         <v>31</v>
       </c>
-      <c r="Q32" s="98">
+      <c r="Q32" s="88">
         <v>74.790393741182498</v>
       </c>
-      <c r="R32" s="92">
+      <c r="R32" s="82">
         <v>7.8765027322404375</v>
       </c>
-      <c r="S32" s="99"/>
-      <c r="T32" s="98">
+      <c r="S32" s="89"/>
+      <c r="T32" s="88">
         <v>1.098640875493502</v>
       </c>
-      <c r="U32" s="92">
+      <c r="U32" s="82">
         <v>0.32408195574182314</v>
       </c>
-      <c r="V32" s="99"/>
-      <c r="W32" s="93">
+      <c r="V32" s="89"/>
+      <c r="W32" s="83">
         <f t="shared" si="0"/>
         <v>9.4953809176053809</v>
       </c>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="95">
+      <c r="A33" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="85">
         <v>20250127</v>
       </c>
-      <c r="C33" s="96">
+      <c r="C33" s="86">
         <v>1959</v>
       </c>
-      <c r="D33" s="97">
+      <c r="D33" s="87">
         <v>77</v>
       </c>
-      <c r="E33" s="97" t="s">
+      <c r="E33" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="88" t="s">
+      <c r="F33" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="97">
+      <c r="G33" s="87">
         <v>19</v>
       </c>
-      <c r="H33" s="97">
+      <c r="H33" s="87">
         <v>17</v>
       </c>
-      <c r="I33" s="97">
+      <c r="I33" s="87">
         <v>5</v>
       </c>
-      <c r="J33" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="K33" s="97"/>
-      <c r="L33" s="88">
-        <v>1</v>
-      </c>
-      <c r="M33" s="88">
-        <v>1</v>
-      </c>
-      <c r="N33" s="78"/>
-      <c r="O33" s="90">
+      <c r="J33" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="87"/>
+      <c r="L33" s="78">
+        <v>1</v>
+      </c>
+      <c r="M33" s="78">
+        <v>1</v>
+      </c>
+      <c r="N33" s="68"/>
+      <c r="O33" s="80">
         <v>45776</v>
       </c>
-      <c r="P33" s="97">
+      <c r="P33" s="87">
         <v>32</v>
       </c>
-      <c r="Q33" s="98">
+      <c r="Q33" s="88">
         <v>74.625202000769519</v>
       </c>
-      <c r="R33" s="92">
+      <c r="R33" s="82">
         <v>7.1879781420765037</v>
       </c>
-      <c r="S33" s="99"/>
-      <c r="T33" s="98">
+      <c r="S33" s="89"/>
+      <c r="T33" s="88">
         <v>1.2643413344910408</v>
       </c>
-      <c r="U33" s="92">
+      <c r="U33" s="82">
         <v>0.27274931435257377</v>
       </c>
-      <c r="V33" s="99"/>
-      <c r="W33" s="93">
+      <c r="V33" s="89"/>
+      <c r="W33" s="83">
         <f t="shared" si="0"/>
         <v>10.38194615032752</v>
       </c>
@@ -3200,8 +6102,8 @@
       <c r="M34" s="61">
         <v>1</v>
       </c>
-      <c r="N34" s="78"/>
-      <c r="O34" s="85">
+      <c r="N34" s="68"/>
+      <c r="O34" s="75">
         <v>45776</v>
       </c>
       <c r="P34" s="13">
@@ -3262,8 +6164,8 @@
       <c r="M35" s="61">
         <v>1</v>
       </c>
-      <c r="N35" s="78"/>
-      <c r="O35" s="85">
+      <c r="N35" s="68"/>
+      <c r="O35" s="75">
         <v>45776</v>
       </c>
       <c r="P35" s="13">
@@ -3287,65 +6189,65 @@
       </c>
     </row>
     <row r="36" spans="1:23">
-      <c r="A36" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="97">
+      <c r="A36" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="87">
         <v>20250128</v>
       </c>
-      <c r="C36" s="100">
+      <c r="C36" s="90">
         <v>950</v>
       </c>
-      <c r="D36" s="97">
+      <c r="D36" s="87">
         <v>22</v>
       </c>
-      <c r="E36" s="97" t="s">
+      <c r="E36" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="88" t="s">
+      <c r="F36" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="97">
+      <c r="G36" s="87">
         <v>21</v>
       </c>
-      <c r="H36" s="97">
+      <c r="H36" s="87">
         <v>21</v>
       </c>
-      <c r="I36" s="97">
+      <c r="I36" s="87">
         <v>5.6</v>
       </c>
-      <c r="J36" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" s="97"/>
-      <c r="L36" s="88">
-        <v>1</v>
-      </c>
-      <c r="M36" s="88">
-        <v>1</v>
-      </c>
-      <c r="N36" s="78"/>
-      <c r="O36" s="90">
+      <c r="J36" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="87"/>
+      <c r="L36" s="78">
+        <v>1</v>
+      </c>
+      <c r="M36" s="78">
+        <v>1</v>
+      </c>
+      <c r="N36" s="68"/>
+      <c r="O36" s="80">
         <v>45776</v>
       </c>
-      <c r="P36" s="97">
+      <c r="P36" s="87">
         <v>35</v>
       </c>
-      <c r="Q36" s="98">
+      <c r="Q36" s="88">
         <v>87.551455688085156</v>
       </c>
-      <c r="R36" s="92">
+      <c r="R36" s="82">
         <v>5.8415300546448101</v>
       </c>
-      <c r="S36" s="99"/>
-      <c r="T36" s="98">
+      <c r="S36" s="89"/>
+      <c r="T36" s="88">
         <v>1.0180197006924738</v>
       </c>
-      <c r="U36" s="92">
+      <c r="U36" s="82">
         <v>0.11750031687084765</v>
       </c>
-      <c r="V36" s="99"/>
-      <c r="W36" s="93">
+      <c r="V36" s="89"/>
+      <c r="W36" s="83">
         <f t="shared" si="0"/>
         <v>14.987760889541235</v>
       </c>
@@ -3378,8 +6280,8 @@
       <c r="M37" s="61">
         <v>1</v>
       </c>
-      <c r="N37" s="78"/>
-      <c r="O37" s="85">
+      <c r="N37" s="68"/>
+      <c r="O37" s="75">
         <v>45776</v>
       </c>
       <c r="P37" s="13">
@@ -4336,7 +7238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F4CF27-1BD4-FD4F-A156-E7362ECA9ABE}">
   <dimension ref="A1:N123"/>
   <sheetViews>
@@ -4370,15 +7272,15 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="67.95" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8">
@@ -4457,21 +7359,21 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="91">
         <v>2.9</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4"/>
@@ -7161,7 +10063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9BA907-E0A6-6A4D-89B3-B31638155774}">
   <dimension ref="A1:N66"/>
   <sheetViews>
@@ -7195,15 +10097,15 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="67.95" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8">
@@ -7282,27 +10184,27 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="73"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="100"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="91">
         <v>0.02</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="73"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="100"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4"/>
